--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_FuturesConvAdjQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="13" r:id="rId1"/>
     <sheet name="3M" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -107,6 +104,9 @@
   <si>
     <t>3M</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +121,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -550,22 +550,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -860,7 +844,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -872,13 +856,13 @@
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="36" t="s">
         <v>7</v>
@@ -887,14 +871,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -903,7 +887,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -914,7 +898,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -925,7 +909,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -936,19 +920,18 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -959,15 +942,15 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
@@ -975,13 +958,13 @@
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
         <v>0</v>
@@ -991,7 +974,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
         <v>20</v>
@@ -1001,7 +984,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1011,7 +994,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
         <v>14</v>
@@ -1021,7 +1004,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
@@ -1031,7 +1014,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="12" thickBot="1">
+    <row r="19" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1066,7 +1049,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="31" bestFit="1" customWidth="1"/>
@@ -1079,7 +1062,7 @@
     <col min="9" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1071,7 @@
         <v>EurHW_Volatility_Quote</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1080,7 @@
         <v>EurHW_MeanReversion_Quote</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="22" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5">
+    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="26" t="s">
         <v>1</v>
@@ -1127,16 +1110,16 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>EUR_020_Futures3MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="28" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="29" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="24">
         <v>1</v>
@@ -1165,7 +1148,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="25">
         <v>2</v>
@@ -1193,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="25">
         <v>3</v>
@@ -1221,7 +1204,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="25">
         <v>4</v>
@@ -1249,7 +1232,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="25">
         <v>5</v>
@@ -1277,7 +1260,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="25">
         <v>6</v>
@@ -1305,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="25">
         <v>7</v>
@@ -1333,7 +1316,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="25">
         <v>8</v>
@@ -1361,7 +1344,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="25">
         <v>9</v>
@@ -1389,7 +1372,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="25">
         <v>10</v>
@@ -1417,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="25">
         <v>11</v>
@@ -1445,7 +1428,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="25">
         <v>12</v>
@@ -1473,7 +1456,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -1501,7 +1484,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="25">
         <v>14</v>
@@ -1529,7 +1512,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="25">
         <v>15</v>
@@ -1557,7 +1540,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="25">
         <v>16</v>
@@ -1585,7 +1568,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="25">
         <v>17</v>
@@ -1613,7 +1596,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="25">
         <v>18</v>
@@ -1641,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="25">
         <v>19</v>
@@ -1669,7 +1652,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="25">
         <v>20</v>
@@ -1697,7 +1680,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="25">
         <v>21</v>
@@ -1725,7 +1708,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="25">
         <v>22</v>
@@ -1753,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="25">
         <v>23</v>
@@ -1781,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="25">
         <v>24</v>
@@ -1809,7 +1792,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="25">
         <v>25</v>
@@ -1837,7 +1820,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="25">
         <v>26</v>
@@ -1865,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="25">
         <v>27</v>
@@ -1893,7 +1876,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="25">
         <v>28</v>
@@ -1921,7 +1904,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="25">
         <v>29</v>
@@ -1949,7 +1932,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="25">
         <v>30</v>
@@ -1977,7 +1960,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="25">
         <v>31</v>
@@ -2005,7 +1988,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="25">
         <v>32</v>
@@ -2033,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="25">
         <v>33</v>
@@ -2061,7 +2044,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="25">
         <v>34</v>
@@ -2089,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="25">
         <v>35</v>
@@ -2117,7 +2100,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="25">
         <v>36</v>
@@ -2145,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="25">
         <v>37</v>
@@ -2173,7 +2156,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="25">
         <v>38</v>
@@ -2201,7 +2184,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="25">
         <v>39</v>
@@ -2229,7 +2212,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="25">
         <v>40</v>
@@ -2257,7 +2240,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="25">
         <v>41</v>
@@ -2285,7 +2268,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="25">
         <v>42</v>
@@ -2313,7 +2296,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="25">
         <v>43</v>
@@ -2341,7 +2324,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="25">
         <v>44</v>
@@ -2369,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="25">
         <v>45</v>
@@ -2397,7 +2380,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="25">
         <v>46</v>
@@ -2425,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="25">
         <v>47</v>
@@ -2453,7 +2436,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="25">
         <v>48</v>
@@ -2481,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="25">
         <v>49</v>
@@ -2509,7 +2492,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="25">
         <v>50</v>
@@ -2537,7 +2520,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="25">
         <v>51</v>
@@ -2565,7 +2548,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="25">
         <v>52</v>
@@ -2593,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="25">
         <v>53</v>
@@ -2621,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="25">
         <v>54</v>
@@ -2649,7 +2632,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="25">
         <v>55</v>
@@ -2677,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="25">
         <v>56</v>
@@ -2705,7 +2688,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="25">
         <v>57</v>
@@ -2733,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="25">
         <v>58</v>
@@ -2761,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="25">
         <v>59</v>
@@ -2789,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="25">
         <v>60</v>
@@ -2817,7 +2800,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="25">
         <v>61</v>
@@ -2845,7 +2828,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="25">
         <v>62</v>
@@ -2873,7 +2856,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="25">
         <v>63</v>
@@ -2901,7 +2884,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="25">
         <v>64</v>
@@ -2929,7 +2912,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="25">
         <v>65</v>
@@ -2957,7 +2940,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="25">
         <v>66</v>
@@ -2985,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="25">
         <v>67</v>
@@ -3013,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="25">
         <v>68</v>
@@ -3041,7 +3024,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="25">
         <v>69</v>
@@ -3069,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="25">
         <v>70</v>
@@ -3097,7 +3080,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="25">
         <v>71</v>
@@ -3125,7 +3108,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="25">
         <v>72</v>
@@ -3153,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="25">
         <v>73</v>
@@ -3181,7 +3164,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="25">
         <v>74</v>
@@ -3209,7 +3192,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="25">
         <v>75</v>
@@ -3237,7 +3220,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="25">
         <v>76</v>
@@ -3265,7 +3248,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="25">
         <v>77</v>
@@ -3293,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="25">
         <v>78</v>
@@ -3321,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="33"/>
       <c r="B85" s="25">
         <v>79</v>
@@ -3349,7 +3332,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="25">
         <v>80</v>
@@ -3377,7 +3360,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="25">
         <v>81</v>
@@ -3405,7 +3388,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="25">
         <v>82</v>
@@ -3433,7 +3416,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="25">
         <v>83</v>
@@ -3461,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="25">
         <v>84</v>
@@ -3489,7 +3472,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="25">
         <v>85</v>
@@ -3517,7 +3500,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="25">
         <v>86</v>
@@ -3545,7 +3528,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="25">
         <v>87</v>
@@ -3573,7 +3556,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="25">
         <v>88</v>
@@ -3601,7 +3584,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="25">
         <v>89</v>
@@ -3629,7 +3612,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="25">
         <v>90</v>
@@ -3657,7 +3640,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="25">
         <v>91</v>
@@ -3685,7 +3668,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="25">
         <v>92</v>
@@ -3713,7 +3696,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="25">
         <v>93</v>
@@ -3741,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="25">
         <v>94</v>
@@ -3769,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="25">
         <v>95</v>
@@ -3797,7 +3780,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="25">
         <v>96</v>
@@ -3825,7 +3808,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="25">
         <v>97</v>
@@ -3853,7 +3836,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="25">
         <v>98</v>
@@ -3881,7 +3864,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="25">
         <v>99</v>
@@ -3909,7 +3892,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="25">
         <v>100</v>
@@ -3937,7 +3920,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="25">
         <v>101</v>
@@ -3965,7 +3948,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="25">
         <v>102</v>
@@ -3993,7 +3976,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="25">
         <v>103</v>
@@ -4021,7 +4004,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="25">
         <v>104</v>
@@ -4049,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="25">
         <v>105</v>
@@ -4077,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="25">
         <v>106</v>
@@ -4105,7 +4088,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="25">
         <v>107</v>
@@ -4133,7 +4116,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="25">
         <v>108</v>
@@ -4161,7 +4144,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="33"/>
       <c r="B115" s="25">
         <v>109</v>
@@ -4189,7 +4172,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="25">
         <v>110</v>
@@ -4217,7 +4200,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="33"/>
       <c r="B117" s="25">
         <v>111</v>
@@ -4245,7 +4228,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="25">
         <v>112</v>
@@ -4273,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="33"/>
       <c r="B119" s="25">
         <v>113</v>
@@ -4301,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="25">
         <v>114</v>
@@ -4329,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="33"/>
       <c r="B121" s="25">
         <v>115</v>
@@ -4357,7 +4340,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="25">
         <v>116</v>
@@ -4385,7 +4368,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="33"/>
       <c r="B123" s="25">
         <v>117</v>
@@ -4413,7 +4396,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="25">
         <v>118</v>
@@ -4441,7 +4424,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="33"/>
       <c r="B125" s="25">
         <v>119</v>
@@ -4469,7 +4452,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="12" thickBot="1">
+    <row r="126" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="25">
         <v>120</v>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_FuturesConvAdjQuotes.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Currency</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>3M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -926,8 +923,9 @@
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1111,12 +1109,12 @@
         <v>EUR_020_Futures3MConvAdj.xml</v>
       </c>
       <c r="G6" s="28" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="29" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="29" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
